--- a/Output/Микроволновые печи ВСТР.xlsx
+++ b/Output/Микроволновые печи ВСТР.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="88">
   <si>
     <t>Артикул</t>
   </si>
@@ -109,6 +109,9 @@
     <t>есть</t>
   </si>
   <si>
+    <t>45</t>
+  </si>
+  <si>
     <t>серебристый</t>
   </si>
   <si>
@@ -121,6 +124,12 @@
     <t>74</t>
   </si>
   <si>
+    <t>сверху вниз</t>
+  </si>
+  <si>
+    <t>эмаль</t>
+  </si>
+  <si>
     <t>OM8487A</t>
   </si>
   <si>
@@ -151,7 +160,16 @@
     <t>высота ниши шкафа 36-38 см</t>
   </si>
   <si>
+    <t>38</t>
+  </si>
+  <si>
     <t>навесная</t>
+  </si>
+  <si>
+    <t>боковове</t>
+  </si>
+  <si>
+    <t>нержавеющая сталь</t>
   </si>
   <si>
     <t>DME1129X</t>
@@ -704,8 +722,11 @@
       <c r="K2" t="s">
         <v>30</v>
       </c>
+      <c r="L2" t="s">
+        <v>31</v>
+      </c>
       <c r="M2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N2" t="n">
         <v>1000</v>
@@ -714,21 +735,30 @@
         <v>53</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T2" t="s">
         <v>30</v>
+      </c>
+      <c r="U2" t="n">
+        <v>6</v>
+      </c>
+      <c r="V2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -737,7 +767,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -756,8 +786,11 @@
       <c r="K3" t="s">
         <v>30</v>
       </c>
+      <c r="L3" t="s">
+        <v>31</v>
+      </c>
       <c r="M3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N3" t="n">
         <v>1000</v>
@@ -766,21 +799,30 @@
         <v>53</v>
       </c>
       <c r="Q3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U3" t="n">
+        <v>6</v>
+      </c>
+      <c r="V3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W3" t="s">
         <v>37</v>
-      </c>
-      <c r="T3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -789,7 +831,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
         <v>26</v>
@@ -808,8 +850,11 @@
       <c r="K4" t="s">
         <v>30</v>
       </c>
+      <c r="L4" t="s">
+        <v>31</v>
+      </c>
       <c r="M4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N4" t="n">
         <v>1000</v>
@@ -818,30 +863,39 @@
         <v>53</v>
       </c>
       <c r="Q4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S4" t="s">
+        <v>40</v>
+      </c>
+      <c r="T4" t="s">
+        <v>30</v>
+      </c>
+      <c r="U4" t="n">
+        <v>6</v>
+      </c>
+      <c r="V4" t="s">
+        <v>36</v>
+      </c>
+      <c r="W4" t="s">
         <v>37</v>
-      </c>
-      <c r="T4" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
         <v>26</v>
@@ -869,16 +923,16 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s">
         <v>26</v>
@@ -906,16 +960,16 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s">
         <v>26</v>
@@ -943,16 +997,16 @@
     </row>
     <row r="8" spans="1:23">
       <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
         <v>43</v>
       </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>40</v>
-      </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
         <v>26</v>
@@ -961,7 +1015,7 @@
         <v>27</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s"/>
       <c r="I8" t="s"/>
@@ -971,8 +1025,11 @@
       <c r="K8" t="s">
         <v>29</v>
       </c>
+      <c r="L8" t="s">
+        <v>48</v>
+      </c>
       <c r="M8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N8" t="n">
         <v>900</v>
@@ -984,30 +1041,39 @@
         <v>26</v>
       </c>
       <c r="Q8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R8" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="S8" t="s">
         <v>29</v>
       </c>
       <c r="T8" t="s">
         <v>30</v>
+      </c>
+      <c r="U8" t="n">
+        <v>6</v>
+      </c>
+      <c r="V8" t="s">
+        <v>50</v>
+      </c>
+      <c r="W8" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E9" t="s">
         <v>26</v>
@@ -1016,7 +1082,7 @@
         <v>27</v>
       </c>
       <c r="G9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s"/>
       <c r="I9" t="s"/>
@@ -1026,8 +1092,11 @@
       <c r="K9" t="s">
         <v>29</v>
       </c>
+      <c r="L9" t="s">
+        <v>48</v>
+      </c>
       <c r="M9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N9" t="n">
         <v>900</v>
@@ -1039,30 +1108,39 @@
         <v>26</v>
       </c>
       <c r="Q9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R9" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="S9" t="s">
         <v>29</v>
       </c>
       <c r="T9" t="s">
         <v>30</v>
+      </c>
+      <c r="U9" t="n">
+        <v>6</v>
+      </c>
+      <c r="V9" t="s">
+        <v>50</v>
+      </c>
+      <c r="W9" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E10" t="s">
         <v>26</v>
@@ -1081,8 +1159,11 @@
       <c r="K10" t="s">
         <v>29</v>
       </c>
+      <c r="L10" t="s">
+        <v>31</v>
+      </c>
       <c r="M10" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N10" t="n">
         <v>1000</v>
@@ -1091,30 +1172,39 @@
         <v>40</v>
       </c>
       <c r="Q10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S10" t="s">
         <v>29</v>
       </c>
       <c r="T10" t="s">
         <v>30</v>
+      </c>
+      <c r="U10" t="n">
+        <v>10</v>
+      </c>
+      <c r="V10" t="s">
+        <v>36</v>
+      </c>
+      <c r="W10" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s">
         <v>26</v>
@@ -1133,8 +1223,11 @@
       <c r="K11" t="s">
         <v>29</v>
       </c>
+      <c r="L11" t="s">
+        <v>31</v>
+      </c>
       <c r="M11" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="N11" t="n">
         <v>1000</v>
@@ -1143,30 +1236,39 @@
         <v>40</v>
       </c>
       <c r="Q11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S11" t="s">
         <v>29</v>
       </c>
       <c r="T11" t="s">
         <v>30</v>
+      </c>
+      <c r="U11" t="n">
+        <v>10</v>
+      </c>
+      <c r="V11" t="s">
+        <v>36</v>
+      </c>
+      <c r="W11" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E12" t="s">
         <v>26</v>
@@ -1185,8 +1287,11 @@
       <c r="K12" t="s">
         <v>29</v>
       </c>
+      <c r="L12" t="s">
+        <v>31</v>
+      </c>
       <c r="M12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N12" t="n">
         <v>1000</v>
@@ -1195,30 +1300,39 @@
         <v>40</v>
       </c>
       <c r="Q12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S12" t="s">
         <v>29</v>
       </c>
       <c r="T12" t="s">
         <v>30</v>
+      </c>
+      <c r="U12" t="n">
+        <v>10</v>
+      </c>
+      <c r="V12" t="s">
+        <v>36</v>
+      </c>
+      <c r="W12" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E13" t="s">
         <v>26</v>
@@ -1237,8 +1351,11 @@
       <c r="K13" t="s">
         <v>30</v>
       </c>
+      <c r="L13" t="s">
+        <v>31</v>
+      </c>
       <c r="M13" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N13" t="n">
         <v>1000</v>
@@ -1250,30 +1367,39 @@
         <v>40</v>
       </c>
       <c r="Q13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S13" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="T13" t="s">
         <v>30</v>
+      </c>
+      <c r="U13" t="n">
+        <v>10</v>
+      </c>
+      <c r="V13" t="s">
+        <v>36</v>
+      </c>
+      <c r="W13" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B14" t="s">
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E14" t="s">
         <v>26</v>
@@ -1292,8 +1418,11 @@
       <c r="K14" t="s">
         <v>30</v>
       </c>
+      <c r="L14" t="s">
+        <v>31</v>
+      </c>
       <c r="M14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N14" t="n">
         <v>1000</v>
@@ -1305,30 +1434,39 @@
         <v>40</v>
       </c>
       <c r="Q14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S14" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="T14" t="s">
         <v>30</v>
+      </c>
+      <c r="U14" t="n">
+        <v>10</v>
+      </c>
+      <c r="V14" t="s">
+        <v>36</v>
+      </c>
+      <c r="W14" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B15" t="s">
         <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E15" t="s">
         <v>26</v>
@@ -1347,8 +1485,11 @@
       <c r="K15" t="s">
         <v>30</v>
       </c>
+      <c r="L15" t="s">
+        <v>31</v>
+      </c>
       <c r="M15" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N15" t="n">
         <v>1000</v>
@@ -1360,30 +1501,39 @@
         <v>40</v>
       </c>
       <c r="Q15" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="R15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S15" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="T15" t="s">
         <v>30</v>
+      </c>
+      <c r="U15" t="n">
+        <v>10</v>
+      </c>
+      <c r="V15" t="s">
+        <v>36</v>
+      </c>
+      <c r="W15" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B16" t="s">
         <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E16" t="s">
         <v>26</v>
@@ -1402,8 +1552,11 @@
       <c r="K16" t="s">
         <v>30</v>
       </c>
+      <c r="L16" t="s">
+        <v>31</v>
+      </c>
       <c r="M16" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="N16" t="n">
         <v>1000</v>
@@ -1415,30 +1568,39 @@
         <v>40</v>
       </c>
       <c r="Q16" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="R16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S16" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="T16" t="s">
         <v>30</v>
+      </c>
+      <c r="U16" t="n">
+        <v>10</v>
+      </c>
+      <c r="V16" t="s">
+        <v>36</v>
+      </c>
+      <c r="W16" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B17" t="s">
         <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E17" t="s">
         <v>26</v>
@@ -1457,8 +1619,11 @@
       <c r="K17" t="s">
         <v>30</v>
       </c>
+      <c r="L17" t="s">
+        <v>31</v>
+      </c>
       <c r="M17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N17" t="n">
         <v>1000</v>
@@ -1470,30 +1635,39 @@
         <v>40</v>
       </c>
       <c r="Q17" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="R17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S17" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="T17" t="s">
         <v>30</v>
+      </c>
+      <c r="U17" t="n">
+        <v>10</v>
+      </c>
+      <c r="V17" t="s">
+        <v>36</v>
+      </c>
+      <c r="W17" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:23">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B18" t="s">
         <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E18" t="s">
         <v>26</v>
@@ -1512,8 +1686,11 @@
       <c r="K18" t="s">
         <v>30</v>
       </c>
+      <c r="L18" t="s">
+        <v>31</v>
+      </c>
       <c r="M18" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="N18" t="n">
         <v>1000</v>
@@ -1525,30 +1702,39 @@
         <v>40</v>
       </c>
       <c r="Q18" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="R18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S18" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="T18" t="s">
         <v>30</v>
+      </c>
+      <c r="U18" t="n">
+        <v>10</v>
+      </c>
+      <c r="V18" t="s">
+        <v>36</v>
+      </c>
+      <c r="W18" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:23">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B19" t="s">
         <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D19" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E19" t="s">
         <v>26</v>
@@ -1567,8 +1753,11 @@
       <c r="K19" t="s">
         <v>30</v>
       </c>
+      <c r="L19" t="s">
+        <v>31</v>
+      </c>
       <c r="M19" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="N19" t="n">
         <v>1000</v>
@@ -1580,30 +1769,39 @@
         <v>40</v>
       </c>
       <c r="Q19" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="R19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S19" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="T19" t="s">
         <v>30</v>
+      </c>
+      <c r="U19" t="n">
+        <v>10</v>
+      </c>
+      <c r="V19" t="s">
+        <v>36</v>
+      </c>
+      <c r="W19" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B20" t="s">
         <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D20" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E20" t="s">
         <v>26</v>
@@ -1631,16 +1829,16 @@
     </row>
     <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B21" t="s">
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D21" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E21" t="s">
         <v>26</v>
@@ -1649,7 +1847,7 @@
         <v>27</v>
       </c>
       <c r="G21" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s"/>
       <c r="I21" t="s"/>
@@ -1659,8 +1857,11 @@
       <c r="K21" t="s">
         <v>29</v>
       </c>
+      <c r="L21" t="s">
+        <v>48</v>
+      </c>
       <c r="M21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N21" t="n">
         <v>900</v>
@@ -1672,30 +1873,39 @@
         <v>26</v>
       </c>
       <c r="Q21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R21" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="S21" t="s">
         <v>29</v>
       </c>
       <c r="T21" t="s">
         <v>30</v>
+      </c>
+      <c r="U21" t="n">
+        <v>6</v>
+      </c>
+      <c r="V21" t="s">
+        <v>50</v>
+      </c>
+      <c r="W21" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:23">
       <c r="A22" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B22" t="s">
         <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D22" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E22" t="s">
         <v>26</v>
@@ -1714,8 +1924,11 @@
       <c r="K22" t="s">
         <v>29</v>
       </c>
+      <c r="L22" t="s">
+        <v>31</v>
+      </c>
       <c r="M22" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="N22" t="n">
         <v>1000</v>
@@ -1727,30 +1940,39 @@
         <v>40</v>
       </c>
       <c r="Q22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S22" t="s">
         <v>29</v>
       </c>
       <c r="T22" t="s">
         <v>30</v>
+      </c>
+      <c r="U22" t="n">
+        <v>10</v>
+      </c>
+      <c r="V22" t="s">
+        <v>36</v>
+      </c>
+      <c r="W22" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:23">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D23" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E23" t="s">
         <v>26</v>
@@ -1769,8 +1991,11 @@
       <c r="K23" t="s">
         <v>29</v>
       </c>
+      <c r="L23" t="s">
+        <v>31</v>
+      </c>
       <c r="M23" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="N23" t="n">
         <v>1000</v>
@@ -1782,30 +2007,39 @@
         <v>40</v>
       </c>
       <c r="Q23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S23" t="s">
         <v>29</v>
       </c>
       <c r="T23" t="s">
         <v>30</v>
+      </c>
+      <c r="U23" t="n">
+        <v>10</v>
+      </c>
+      <c r="V23" t="s">
+        <v>36</v>
+      </c>
+      <c r="W23" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:23">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D24" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E24" t="s">
         <v>26</v>
@@ -1814,7 +2048,7 @@
         <v>27</v>
       </c>
       <c r="G24" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s"/>
       <c r="I24" t="s"/>
@@ -1824,8 +2058,11 @@
       <c r="K24" t="s">
         <v>29</v>
       </c>
+      <c r="L24" t="s">
+        <v>48</v>
+      </c>
       <c r="M24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N24" t="n">
         <v>900</v>
@@ -1837,30 +2074,39 @@
         <v>21</v>
       </c>
       <c r="Q24" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="R24" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="S24" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="T24" t="s">
         <v>30</v>
+      </c>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="s">
+        <v>50</v>
+      </c>
+      <c r="W24" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:23">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B25" t="s">
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D25" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E25" t="s">
         <v>26</v>
@@ -1879,8 +2125,11 @@
       <c r="K25" t="s">
         <v>29</v>
       </c>
+      <c r="L25" t="s">
+        <v>31</v>
+      </c>
       <c r="M25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N25" t="n">
         <v>900</v>
@@ -1889,30 +2138,39 @@
         <v>26</v>
       </c>
       <c r="Q25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R25" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="S25" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="T25" t="s">
         <v>30</v>
+      </c>
+      <c r="U25" t="n">
+        <v>6</v>
+      </c>
+      <c r="V25" t="s">
+        <v>50</v>
+      </c>
+      <c r="W25" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:23">
       <c r="A26" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B26" t="s">
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D26" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E26" t="s">
         <v>26</v>
@@ -1931,8 +2189,11 @@
       <c r="K26" t="s">
         <v>29</v>
       </c>
+      <c r="L26" t="s">
+        <v>31</v>
+      </c>
       <c r="M26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N26" t="n">
         <v>900</v>
@@ -1941,30 +2202,39 @@
         <v>46</v>
       </c>
       <c r="Q26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S26" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="T26" t="s">
         <v>30</v>
+      </c>
+      <c r="U26" t="n">
+        <v>7</v>
+      </c>
+      <c r="V26" t="s">
+        <v>36</v>
+      </c>
+      <c r="W26" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:23">
       <c r="A27" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B27" t="s">
         <v>24</v>
       </c>
       <c r="C27" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D27" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E27" t="s">
         <v>26</v>
@@ -1983,8 +2253,11 @@
       <c r="K27" t="s">
         <v>29</v>
       </c>
+      <c r="L27" t="s">
+        <v>31</v>
+      </c>
       <c r="M27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N27" t="n">
         <v>900</v>
@@ -1993,30 +2266,39 @@
         <v>46</v>
       </c>
       <c r="Q27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S27" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="T27" t="s">
         <v>30</v>
+      </c>
+      <c r="U27" t="n">
+        <v>7</v>
+      </c>
+      <c r="V27" t="s">
+        <v>36</v>
+      </c>
+      <c r="W27" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:23">
       <c r="A28" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B28" t="s">
         <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D28" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="E28" t="s">
         <v>26</v>
@@ -2025,7 +2307,7 @@
         <v>27</v>
       </c>
       <c r="G28" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s"/>
       <c r="I28" t="s"/>
@@ -2035,8 +2317,11 @@
       <c r="K28" t="s">
         <v>29</v>
       </c>
+      <c r="L28" t="s">
+        <v>48</v>
+      </c>
       <c r="M28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N28" t="n">
         <v>800</v>
@@ -2048,30 +2333,39 @@
         <v>20</v>
       </c>
       <c r="Q28" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="R28" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="S28" t="s">
         <v>29</v>
       </c>
       <c r="T28" t="s">
         <v>30</v>
+      </c>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="s">
+        <v>50</v>
+      </c>
+      <c r="W28" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:23">
       <c r="A29" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B29" t="s">
         <v>24</v>
       </c>
       <c r="C29" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D29" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E29" t="s">
         <v>26</v>
@@ -2099,16 +2393,16 @@
     </row>
     <row r="30" spans="1:23">
       <c r="A30" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B30" t="s">
         <v>24</v>
       </c>
       <c r="C30" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D30" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E30" t="s">
         <v>26</v>
@@ -2117,7 +2411,7 @@
         <v>27</v>
       </c>
       <c r="G30" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s"/>
       <c r="I30" t="s"/>
@@ -2127,8 +2421,11 @@
       <c r="K30" t="s">
         <v>29</v>
       </c>
+      <c r="L30" t="s">
+        <v>48</v>
+      </c>
       <c r="M30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N30" t="n">
         <v>850</v>
@@ -2140,30 +2437,39 @@
         <v>22</v>
       </c>
       <c r="Q30" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="R30" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="S30" t="s">
         <v>29</v>
       </c>
       <c r="T30" t="s">
         <v>30</v>
+      </c>
+      <c r="U30" t="n">
+        <v>6</v>
+      </c>
+      <c r="V30" t="s">
+        <v>50</v>
+      </c>
+      <c r="W30" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:23">
       <c r="A31" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B31" t="s">
         <v>24</v>
       </c>
       <c r="C31" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D31" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E31" t="s">
         <v>26</v>
@@ -2172,7 +2478,7 @@
         <v>27</v>
       </c>
       <c r="G31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s"/>
       <c r="I31" t="s"/>
@@ -2182,8 +2488,11 @@
       <c r="K31" t="s">
         <v>29</v>
       </c>
+      <c r="L31" t="s">
+        <v>48</v>
+      </c>
       <c r="M31" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N31" t="n">
         <v>850</v>
@@ -2195,30 +2504,39 @@
         <v>22</v>
       </c>
       <c r="Q31" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="R31" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="S31" t="s">
         <v>29</v>
       </c>
       <c r="T31" t="s">
         <v>30</v>
+      </c>
+      <c r="U31" t="n">
+        <v>6</v>
+      </c>
+      <c r="V31" t="s">
+        <v>50</v>
+      </c>
+      <c r="W31" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:23">
       <c r="A32" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B32" t="s">
         <v>24</v>
       </c>
       <c r="C32" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D32" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E32" t="s">
         <v>26</v>
@@ -2237,8 +2555,11 @@
       <c r="K32" t="s">
         <v>29</v>
       </c>
+      <c r="L32" t="s">
+        <v>31</v>
+      </c>
       <c r="M32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N32" t="n">
         <v>1000</v>
@@ -2250,16 +2571,25 @@
         <v>40</v>
       </c>
       <c r="Q32" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="R32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S32" t="s">
         <v>29</v>
       </c>
       <c r="T32" t="s">
         <v>30</v>
+      </c>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="s">
+        <v>36</v>
+      </c>
+      <c r="W32" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Микроволновые печи ВСТР.xlsx
+++ b/Output/Микроволновые печи ВСТР.xlsx
@@ -148,6 +148,9 @@
     <t>De Dietrich</t>
   </si>
   <si>
+    <t>высота ниши шкафа 36-38 см</t>
+  </si>
+  <si>
     <t>DME1121W</t>
   </si>
   <si>
@@ -155,9 +158,6 @@
   </si>
   <si>
     <t>DME1129B</t>
-  </si>
-  <si>
-    <t>высота ниши шкафа 36-38 см</t>
   </si>
   <si>
     <t>38</t>
@@ -903,7 +903,9 @@
       <c r="F5" t="s">
         <v>27</v>
       </c>
-      <c r="G5" t="s"/>
+      <c r="G5" t="s">
+        <v>44</v>
+      </c>
       <c r="H5" t="s"/>
       <c r="I5" t="s"/>
       <c r="J5" t="s"/>
@@ -923,7 +925,7 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -932,15 +934,17 @@
         <v>43</v>
       </c>
       <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
         <v>44</v>
       </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" t="s"/>
       <c r="H6" t="s"/>
       <c r="I6" t="s"/>
       <c r="J6" t="s"/>
@@ -960,7 +964,7 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -969,7 +973,7 @@
         <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
         <v>26</v>
@@ -977,7 +981,9 @@
       <c r="F7" t="s">
         <v>27</v>
       </c>
-      <c r="G7" t="s"/>
+      <c r="G7" t="s">
+        <v>44</v>
+      </c>
       <c r="H7" t="s"/>
       <c r="I7" t="s"/>
       <c r="J7" t="s"/>
@@ -997,7 +1003,7 @@
     </row>
     <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -1006,7 +1012,7 @@
         <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E8" t="s">
         <v>26</v>
@@ -1015,7 +1021,7 @@
         <v>27</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H8" t="s"/>
       <c r="I8" t="s"/>
@@ -1082,7 +1088,7 @@
         <v>27</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H9" t="s"/>
       <c r="I9" t="s"/>
@@ -1809,7 +1815,9 @@
       <c r="F20" t="s">
         <v>27</v>
       </c>
-      <c r="G20" t="s"/>
+      <c r="G20" t="s">
+        <v>44</v>
+      </c>
       <c r="H20" t="s"/>
       <c r="I20" t="s"/>
       <c r="J20" t="s"/>
@@ -1847,7 +1855,7 @@
         <v>27</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H21" t="s"/>
       <c r="I21" t="s"/>
@@ -2048,7 +2056,7 @@
         <v>27</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H24" t="s"/>
       <c r="I24" t="s"/>
@@ -2307,7 +2315,7 @@
         <v>27</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H28" t="s"/>
       <c r="I28" t="s"/>
@@ -2373,7 +2381,9 @@
       <c r="F29" t="s">
         <v>27</v>
       </c>
-      <c r="G29" t="s"/>
+      <c r="G29" t="s">
+        <v>44</v>
+      </c>
       <c r="H29" t="s"/>
       <c r="I29" t="s"/>
       <c r="J29" t="s"/>
@@ -2411,7 +2421,7 @@
         <v>27</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H30" t="s"/>
       <c r="I30" t="s"/>
@@ -2478,7 +2488,7 @@
         <v>27</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H31" t="s"/>
       <c r="I31" t="s"/>
